--- a/static/raza_table_tunis_gp_25.xlsx
+++ b/static/raza_table_tunis_gp_25.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khali\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TUNISGP\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F684B33D-E4D9-4806-B24F-4A5C490C2AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EBC83A-68EB-42A6-ADC3-387740ABFCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{825671DF-50E2-43CB-952D-CF261CF13C97}"/>
+    <workbookView xWindow="3330" yWindow="3330" windowWidth="28800" windowHeight="15345" xr2:uid="{825671DF-50E2-43CB-952D-CF261CF13C97}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Men</t>
-  </si>
-  <si>
-    <t>100 m</t>
   </si>
   <si>
     <t>T11</t>
@@ -126,25 +123,7 @@
     <t>T72</t>
   </si>
   <si>
-    <t>200 m</t>
-  </si>
-  <si>
-    <t>400 m</t>
-  </si>
-  <si>
     <t>T20</t>
-  </si>
-  <si>
-    <t>800 m</t>
-  </si>
-  <si>
-    <t>1500 m</t>
-  </si>
-  <si>
-    <t>5000 m</t>
-  </si>
-  <si>
-    <t>10000 m</t>
   </si>
   <si>
     <t>Women</t>
@@ -277,6 +256,27 @@
   </si>
   <si>
     <t>F44</t>
+  </si>
+  <si>
+    <t>100m</t>
+  </si>
+  <si>
+    <t>200m</t>
+  </si>
+  <si>
+    <t>400m</t>
+  </si>
+  <si>
+    <t>800m</t>
+  </si>
+  <si>
+    <t>1500m</t>
+  </si>
+  <si>
+    <t>5000m</t>
+  </si>
+  <si>
+    <t>10000m</t>
   </si>
 </sst>
 </file>
@@ -680,7 +680,7 @@
   <dimension ref="A1:G468"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -720,13 +720,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
       <c r="E2">
         <v>1200</v>
@@ -743,13 +743,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1200</v>
@@ -766,13 +766,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>1200</v>
@@ -789,13 +789,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>1200</v>
@@ -812,13 +812,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>1200</v>
@@ -835,13 +835,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>1200</v>
@@ -858,13 +858,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>1200</v>
@@ -881,13 +881,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>1200</v>
@@ -904,13 +904,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>1200</v>
@@ -927,13 +927,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>1200</v>
@@ -950,13 +950,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>1200</v>
@@ -973,13 +973,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>1200</v>
@@ -996,13 +996,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <v>1200</v>
@@ -1019,13 +1019,13 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E15">
         <v>1200</v>
@@ -1042,13 +1042,13 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E16">
         <v>1200</v>
@@ -1065,13 +1065,13 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>1200</v>
@@ -1088,13 +1088,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>1200</v>
@@ -1111,13 +1111,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>1200</v>
@@ -1134,13 +1134,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>1200</v>
@@ -1157,13 +1157,13 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>1200</v>
@@ -1180,13 +1180,13 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>1200</v>
@@ -1203,13 +1203,13 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>1200</v>
@@ -1226,13 +1226,13 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>1200</v>
@@ -1249,13 +1249,13 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>1200</v>
@@ -1272,13 +1272,13 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26">
         <v>1200</v>
@@ -1295,13 +1295,13 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>1200</v>
@@ -1318,13 +1318,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>1200</v>
@@ -1341,13 +1341,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29">
         <v>1200</v>
@@ -1364,13 +1364,13 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>1200</v>
@@ -1387,13 +1387,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31">
         <v>1200</v>
@@ -1410,13 +1410,13 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32">
         <v>1200</v>
@@ -1433,13 +1433,13 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>1200</v>
@@ -1456,13 +1456,13 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>1200</v>
@@ -1479,13 +1479,13 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>1200</v>
@@ -1502,13 +1502,13 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>1200</v>
@@ -1525,13 +1525,13 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>1200</v>
@@ -1548,13 +1548,13 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>1200</v>
@@ -1571,13 +1571,13 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E39">
         <v>1200</v>
@@ -1594,13 +1594,13 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>1200</v>
@@ -1617,13 +1617,13 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E41">
         <v>1200</v>
@@ -1640,13 +1640,13 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E42">
         <v>1200</v>
@@ -1663,13 +1663,13 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E43">
         <v>1200</v>
@@ -1686,13 +1686,13 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44">
         <v>1200</v>
@@ -1709,13 +1709,13 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E45">
         <v>1200</v>
@@ -1732,13 +1732,13 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E46">
         <v>1200</v>
@@ -1755,13 +1755,13 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E47">
         <v>1200</v>
@@ -1778,13 +1778,13 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E48">
         <v>1200</v>
@@ -1801,13 +1801,13 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E49">
         <v>1200</v>
@@ -1824,13 +1824,13 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E50">
         <v>1200</v>
@@ -1847,13 +1847,13 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E51">
         <v>1200</v>
@@ -1870,13 +1870,13 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E52">
         <v>1200</v>
@@ -1893,13 +1893,13 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E53">
         <v>1200</v>
@@ -1916,13 +1916,13 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54">
         <v>1200</v>
@@ -1939,13 +1939,13 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D55" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E55">
         <v>1200</v>
@@ -1962,13 +1962,13 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E56">
         <v>1200</v>
@@ -1985,13 +1985,13 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E57">
         <v>1200</v>
@@ -2008,13 +2008,13 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E58">
         <v>1200</v>
@@ -2031,13 +2031,13 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E59">
         <v>1200</v>
@@ -2054,13 +2054,13 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E60">
         <v>1200</v>
@@ -2077,13 +2077,13 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>1200</v>
@@ -2100,13 +2100,13 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>1200</v>
@@ -2123,13 +2123,13 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E63">
         <v>1200</v>
@@ -2146,13 +2146,13 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>1200</v>
@@ -2169,13 +2169,13 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D65" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E65">
         <v>1200</v>
@@ -2192,13 +2192,13 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E66">
         <v>1200</v>
@@ -2215,13 +2215,13 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D67" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E67">
         <v>1200</v>
@@ -2238,13 +2238,13 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E68">
         <v>1200</v>
@@ -2261,13 +2261,13 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E69">
         <v>1200</v>
@@ -2284,13 +2284,13 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E70">
         <v>1200</v>
@@ -2307,13 +2307,13 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E71">
         <v>1200</v>
@@ -2330,13 +2330,13 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E72">
         <v>1200</v>
@@ -2353,13 +2353,13 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E73">
         <v>1200</v>
@@ -2376,13 +2376,13 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E74">
         <v>1200</v>
@@ -2399,13 +2399,13 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E75">
         <v>1200</v>
@@ -2422,13 +2422,13 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E76">
         <v>1200</v>
@@ -2445,13 +2445,13 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E77">
         <v>1200</v>
@@ -2468,13 +2468,13 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E78">
         <v>1200</v>
@@ -2491,13 +2491,13 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E79">
         <v>1200</v>
@@ -2514,13 +2514,13 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E80">
         <v>1200</v>
@@ -2537,13 +2537,13 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D81" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E81">
         <v>1200</v>
@@ -2560,13 +2560,13 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E82">
         <v>1200</v>
@@ -2583,13 +2583,13 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E83">
         <v>1200</v>
@@ -2606,13 +2606,13 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E84">
         <v>1200</v>
@@ -2629,13 +2629,13 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E85">
         <v>1200</v>
@@ -2652,13 +2652,13 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E86">
         <v>1200</v>
@@ -2675,13 +2675,13 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E87">
         <v>1200</v>
@@ -2698,13 +2698,13 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E88">
         <v>1200</v>
@@ -2721,13 +2721,13 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D89" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E89">
         <v>1200</v>
@@ -2744,13 +2744,13 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D90" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E90">
         <v>1200</v>
@@ -2767,13 +2767,13 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D91" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E91">
         <v>1200</v>
@@ -2790,13 +2790,13 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E92">
         <v>1200</v>
@@ -2813,13 +2813,13 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E93">
         <v>1200</v>
@@ -2836,13 +2836,13 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E94">
         <v>1200</v>
@@ -2859,13 +2859,13 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E95">
         <v>1200</v>
@@ -2882,13 +2882,13 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E96">
         <v>1200</v>
@@ -2905,13 +2905,13 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E97">
         <v>1200</v>
@@ -2928,13 +2928,13 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E98">
         <v>1200</v>
@@ -2951,13 +2951,13 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E99">
         <v>1200</v>
@@ -2974,13 +2974,13 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D100" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E100">
         <v>1200</v>
@@ -2997,13 +2997,13 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E101">
         <v>1200</v>
@@ -3020,13 +3020,13 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E102">
         <v>1200</v>
@@ -3043,13 +3043,13 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E103">
         <v>1200</v>
@@ -3066,13 +3066,13 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E104">
         <v>1200</v>
@@ -3089,13 +3089,13 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E105">
         <v>1200</v>
@@ -3112,13 +3112,13 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E106">
         <v>1200</v>
@@ -3135,13 +3135,13 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E107">
         <v>1200</v>
@@ -3158,13 +3158,13 @@
         <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D108" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E108">
         <v>1200</v>
@@ -3181,13 +3181,13 @@
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C109" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D109" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E109">
         <v>1200</v>
@@ -3204,13 +3204,13 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C110" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D110" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E110">
         <v>1200</v>
@@ -3227,13 +3227,13 @@
         <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E111">
         <v>1200</v>
@@ -3250,13 +3250,13 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C112" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E112">
         <v>1200</v>
@@ -3273,13 +3273,13 @@
         <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C113" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E113">
         <v>1200</v>
@@ -3296,13 +3296,13 @@
         <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E114">
         <v>1200</v>
@@ -3319,13 +3319,13 @@
         <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E115">
         <v>1200</v>
@@ -3342,13 +3342,13 @@
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C116" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E116">
         <v>1200</v>
@@ -3365,13 +3365,13 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C117" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E117">
         <v>1200</v>
@@ -3388,13 +3388,13 @@
         <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C118" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E118">
         <v>1200</v>
@@ -3411,13 +3411,13 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C119" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D119" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E119">
         <v>1200</v>
@@ -3434,13 +3434,13 @@
         <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E120">
         <v>1200</v>
@@ -3457,13 +3457,13 @@
         <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E121">
         <v>1200</v>
@@ -3480,13 +3480,13 @@
         <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C122" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E122">
         <v>1200</v>
@@ -3503,13 +3503,13 @@
         <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C123" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D123" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E123">
         <v>1200</v>
@@ -3526,13 +3526,13 @@
         <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D124" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E124">
         <v>1200</v>
@@ -3549,13 +3549,13 @@
         <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C125" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D125" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E125">
         <v>1200</v>
@@ -3572,13 +3572,13 @@
         <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C126" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D126" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E126">
         <v>1200</v>
@@ -3595,13 +3595,13 @@
         <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C127" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D127" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E127">
         <v>1200</v>
@@ -3618,13 +3618,13 @@
         <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C128" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D128" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E128">
         <v>1200</v>
@@ -3641,13 +3641,13 @@
         <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C129" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D129" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E129">
         <v>1200</v>
@@ -3664,13 +3664,13 @@
         <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C130" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E130">
         <v>1200</v>
@@ -3687,13 +3687,13 @@
         <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C131" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E131">
         <v>1200</v>
@@ -3710,13 +3710,13 @@
         <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C132" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E132">
         <v>1200</v>
@@ -3733,13 +3733,13 @@
         <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C133" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D133" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E133">
         <v>1200</v>
@@ -3756,13 +3756,13 @@
         <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C134" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D134" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E134">
         <v>1200</v>
@@ -3779,13 +3779,13 @@
         <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C135" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D135" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E135">
         <v>1200</v>
@@ -3802,13 +3802,13 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C136" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D136" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E136">
         <v>1200</v>
@@ -3825,13 +3825,13 @@
         <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C137" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D137" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E137">
         <v>1200</v>
@@ -3848,13 +3848,13 @@
         <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C138" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D138" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E138">
         <v>1200</v>
@@ -3871,13 +3871,13 @@
         <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C139" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D139" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E139">
         <v>1200</v>
@@ -3894,13 +3894,13 @@
         <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C140" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D140" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E140">
         <v>1200</v>
@@ -3914,16 +3914,16 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B141" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C141" t="s">
+        <v>74</v>
+      </c>
+      <c r="D141" t="s">
         <v>7</v>
-      </c>
-      <c r="D141" t="s">
-        <v>8</v>
       </c>
       <c r="E141">
         <v>1200</v>
@@ -3937,16 +3937,16 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B142" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C142" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E142">
         <v>1200</v>
@@ -3960,16 +3960,16 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B143" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E143">
         <v>1200</v>
@@ -3983,16 +3983,16 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B144" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C144" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E144">
         <v>1200</v>
@@ -4006,16 +4006,16 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B145" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C145" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E145">
         <v>1200</v>
@@ -4029,16 +4029,16 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B146" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E146">
         <v>1200</v>
@@ -4052,16 +4052,16 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B147" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C147" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E147">
         <v>1200</v>
@@ -4075,16 +4075,16 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B148" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C148" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E148">
         <v>1200</v>
@@ -4098,16 +4098,16 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B149" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C149" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E149">
         <v>1200</v>
@@ -4121,16 +4121,16 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B150" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C150" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E150">
         <v>1200</v>
@@ -4144,16 +4144,16 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B151" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C151" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E151">
         <v>1200</v>
@@ -4167,16 +4167,16 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B152" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C152" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D152" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E152">
         <v>1200</v>
@@ -4190,16 +4190,16 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B153" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C153" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D153" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E153">
         <v>1200</v>
@@ -4213,16 +4213,16 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B154" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C154" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D154" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E154">
         <v>1200</v>
@@ -4236,16 +4236,16 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B155" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C155" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D155" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E155">
         <v>1200</v>
@@ -4259,16 +4259,16 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B156" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C156" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D156" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E156">
         <v>1200</v>
@@ -4282,16 +4282,16 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B157" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C157" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D157" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E157">
         <v>1200</v>
@@ -4305,16 +4305,16 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B158" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C158" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D158" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E158">
         <v>1200</v>
@@ -4328,16 +4328,16 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B159" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C159" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D159" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E159">
         <v>1200</v>
@@ -4351,16 +4351,16 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C160" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E160">
         <v>1200</v>
@@ -4374,16 +4374,16 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B161" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C161" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D161" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E161">
         <v>1200</v>
@@ -4397,16 +4397,16 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B162" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C162" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D162" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E162">
         <v>1200</v>
@@ -4420,16 +4420,16 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B163" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C163" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D163" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E163">
         <v>1200</v>
@@ -4443,16 +4443,16 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B164" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E164">
         <v>1200</v>
@@ -4466,16 +4466,16 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B165" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E165">
         <v>1200</v>
@@ -4489,16 +4489,16 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B166" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C166" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E166">
         <v>1200</v>
@@ -4512,16 +4512,16 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B167" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C167" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E167">
         <v>1200</v>
@@ -4535,16 +4535,16 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B168" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C168" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E168">
         <v>1200</v>
@@ -4558,16 +4558,16 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B169" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C169" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E169">
         <v>1200</v>
@@ -4581,16 +4581,16 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B170" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C170" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E170">
         <v>1200</v>
@@ -4604,16 +4604,16 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B171" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C171" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D171" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E171">
         <v>1200</v>
@@ -4627,16 +4627,16 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B172" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C172" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D172" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E172">
         <v>1200</v>
@@ -4650,16 +4650,16 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B173" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C173" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D173" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E173">
         <v>1200</v>
@@ -4673,16 +4673,16 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B174" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C174" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D174" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E174">
         <v>1200</v>
@@ -4696,16 +4696,16 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B175" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C175" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E175">
         <v>1200</v>
@@ -4719,16 +4719,16 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B176" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C176" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D176" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E176">
         <v>1200</v>
@@ -4742,16 +4742,16 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B177" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C177" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D177" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E177">
         <v>1200</v>
@@ -4765,16 +4765,16 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B178" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C178" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D178" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E178">
         <v>1200</v>
@@ -4788,16 +4788,16 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B179" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C179" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D179" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E179">
         <v>1200</v>
@@ -4811,16 +4811,16 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B180" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C180" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D180" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E180">
         <v>1200</v>
@@ -4834,16 +4834,16 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B181" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C181" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D181" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E181">
         <v>1200</v>
@@ -4857,16 +4857,16 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B182" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C182" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D182" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E182">
         <v>1200</v>
@@ -4880,16 +4880,16 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B183" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C183" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D183" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E183">
         <v>1200</v>
@@ -4903,16 +4903,16 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B184" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C184" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D184" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E184">
         <v>1200</v>
@@ -4926,16 +4926,16 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B185" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C185" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E185">
         <v>1200</v>
@@ -4949,16 +4949,16 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B186" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C186" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D186" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E186">
         <v>1200</v>
@@ -4972,16 +4972,16 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B187" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C187" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D187" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E187">
         <v>1200</v>
@@ -4995,16 +4995,16 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B188" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C188" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D188" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E188">
         <v>1200</v>
@@ -5018,16 +5018,16 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B189" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E189">
         <v>1200</v>
@@ -5041,16 +5041,16 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B190" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E190">
         <v>1200</v>
@@ -5064,16 +5064,16 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B191" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C191" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E191">
         <v>1200</v>
@@ -5087,16 +5087,16 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B192" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C192" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E192">
         <v>1200</v>
@@ -5110,16 +5110,16 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B193" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C193" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E193">
         <v>1200</v>
@@ -5133,16 +5133,16 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B194" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C194" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D194" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E194">
         <v>1200</v>
@@ -5156,16 +5156,16 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B195" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C195" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D195" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E195">
         <v>1200</v>
@@ -5179,16 +5179,16 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B196" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C196" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D196" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E196">
         <v>1200</v>
@@ -5202,16 +5202,16 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B197" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C197" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D197" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E197">
         <v>1200</v>
@@ -5225,16 +5225,16 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B198" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C198" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D198" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E198">
         <v>1200</v>
@@ -5248,16 +5248,16 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B199" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C199" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D199" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E199">
         <v>1200</v>
@@ -5271,16 +5271,16 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B200" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C200" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D200" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E200">
         <v>1200</v>
@@ -5294,16 +5294,16 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B201" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C201" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D201" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E201">
         <v>1200</v>
@@ -5317,16 +5317,16 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B202" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C202" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D202" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E202">
         <v>1200</v>
@@ -5340,16 +5340,16 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B203" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C203" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D203" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E203">
         <v>1200</v>
@@ -5363,16 +5363,16 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B204" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C204" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D204" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E204">
         <v>1200</v>
@@ -5386,16 +5386,16 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B205" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C205" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D205" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E205">
         <v>1200</v>
@@ -5409,16 +5409,16 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B206" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C206" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D206" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E206">
         <v>1200</v>
@@ -5432,16 +5432,16 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B207" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C207" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D207" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E207">
         <v>1200</v>
@@ -5455,16 +5455,16 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B208" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C208" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D208" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E208">
         <v>1200</v>
@@ -5478,16 +5478,16 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B209" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C209" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D209" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E209">
         <v>1200</v>
@@ -5501,16 +5501,16 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B210" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C210" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D210" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E210">
         <v>1200</v>
@@ -5524,16 +5524,16 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B211" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E211">
         <v>1200</v>
@@ -5547,16 +5547,16 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B212" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E212">
         <v>1200</v>
@@ -5570,16 +5570,16 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B213" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C213" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E213">
         <v>1200</v>
@@ -5593,16 +5593,16 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B214" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C214" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E214">
         <v>1200</v>
@@ -5616,16 +5616,16 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B215" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C215" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E215">
         <v>1200</v>
@@ -5639,16 +5639,16 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B216" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C216" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D216" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E216">
         <v>1200</v>
@@ -5662,16 +5662,16 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B217" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C217" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D217" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E217">
         <v>1200</v>
@@ -5685,16 +5685,16 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B218" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C218" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D218" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E218">
         <v>1200</v>
@@ -5708,16 +5708,16 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B219" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C219" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D219" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E219">
         <v>1200</v>
@@ -5731,16 +5731,16 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B220" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C220" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D220" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E220">
         <v>1200</v>
@@ -5754,16 +5754,16 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B221" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C221" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D221" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E221">
         <v>1200</v>
@@ -5777,16 +5777,16 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B222" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C222" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D222" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E222">
         <v>1200</v>
@@ -5800,16 +5800,16 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B223" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C223" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D223" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E223">
         <v>1200</v>
@@ -5823,16 +5823,16 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C224" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D224" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E224">
         <v>1200</v>
@@ -5846,16 +5846,16 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B225" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C225" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D225" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E225">
         <v>1200</v>
@@ -5869,16 +5869,16 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B226" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C226" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D226" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E226">
         <v>1200</v>
@@ -5892,16 +5892,16 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B227" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C227" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D227" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E227">
         <v>1200</v>
@@ -5915,16 +5915,16 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B228" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C228" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D228" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E228">
         <v>1200</v>
@@ -5938,16 +5938,16 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B229" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C229" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E229">
         <v>1200</v>
@@ -5961,16 +5961,16 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B230" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C230" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E230">
         <v>1200</v>
@@ -5984,16 +5984,16 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B231" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C231" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D231" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E231">
         <v>1200</v>
@@ -6007,16 +6007,16 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B232" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C232" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D232" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E232">
         <v>1200</v>
@@ -6030,16 +6030,16 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B233" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C233" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D233" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E233">
         <v>1200</v>
@@ -6053,16 +6053,16 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B234" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C234" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D234" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E234">
         <v>1200</v>
@@ -6076,16 +6076,16 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B235" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C235" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D235" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E235">
         <v>1200</v>
@@ -6099,16 +6099,16 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B236" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C236" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D236" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E236">
         <v>1200</v>
@@ -6122,16 +6122,16 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B237" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C237" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E237">
         <v>1200</v>
@@ -6145,16 +6145,16 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B238" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C238" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D238" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E238">
         <v>1200</v>
@@ -6168,16 +6168,16 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B239" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C239" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D239" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E239">
         <v>1200</v>
@@ -6191,16 +6191,16 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B240" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C240" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D240" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E240">
         <v>1200</v>
@@ -6214,16 +6214,16 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B241" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C241" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D241" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E241">
         <v>1200</v>
@@ -6237,16 +6237,16 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B242" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C242" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D242" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E242">
         <v>1200</v>
@@ -6263,13 +6263,13 @@
         <v>6</v>
       </c>
       <c r="B243" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C243" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D243" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E243">
         <v>1200</v>
@@ -6286,13 +6286,13 @@
         <v>6</v>
       </c>
       <c r="B244" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C244" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D244" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E244">
         <v>1200</v>
@@ -6309,13 +6309,13 @@
         <v>6</v>
       </c>
       <c r="B245" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C245" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D245" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E245">
         <v>1200</v>
@@ -6332,13 +6332,13 @@
         <v>6</v>
       </c>
       <c r="B246" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C246" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D246" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E246">
         <v>1200</v>
@@ -6355,13 +6355,13 @@
         <v>6</v>
       </c>
       <c r="B247" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C247" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D247" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E247">
         <v>1200</v>
@@ -6378,13 +6378,13 @@
         <v>6</v>
       </c>
       <c r="B248" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C248" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D248" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E248">
         <v>1200</v>
@@ -6401,13 +6401,13 @@
         <v>6</v>
       </c>
       <c r="B249" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C249" t="s">
+        <v>33</v>
+      </c>
+      <c r="D249" t="s">
         <v>40</v>
-      </c>
-      <c r="D249" t="s">
-        <v>47</v>
       </c>
       <c r="E249">
         <v>1200</v>
@@ -6424,13 +6424,13 @@
         <v>6</v>
       </c>
       <c r="B250" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C250" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D250" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E250">
         <v>1200</v>
@@ -6447,13 +6447,13 @@
         <v>6</v>
       </c>
       <c r="B251" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C251" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D251" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E251">
         <v>1200</v>
@@ -6470,13 +6470,13 @@
         <v>6</v>
       </c>
       <c r="B252" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C252" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D252" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E252">
         <v>1200</v>
@@ -6493,13 +6493,13 @@
         <v>6</v>
       </c>
       <c r="B253" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C253" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D253" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E253">
         <v>1200</v>
@@ -6516,13 +6516,13 @@
         <v>6</v>
       </c>
       <c r="B254" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C254" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D254" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E254">
         <v>1200</v>
@@ -6539,13 +6539,13 @@
         <v>6</v>
       </c>
       <c r="B255" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C255" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D255" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E255">
         <v>1200</v>
@@ -6562,13 +6562,13 @@
         <v>6</v>
       </c>
       <c r="B256" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C256" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D256" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E256">
         <v>1200</v>
@@ -6585,13 +6585,13 @@
         <v>6</v>
       </c>
       <c r="B257" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C257" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D257" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E257">
         <v>1200</v>
@@ -6608,13 +6608,13 @@
         <v>6</v>
       </c>
       <c r="B258" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C258" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D258" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E258">
         <v>1200</v>
@@ -6631,13 +6631,13 @@
         <v>6</v>
       </c>
       <c r="B259" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C259" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D259" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E259">
         <v>1200</v>
@@ -6654,13 +6654,13 @@
         <v>6</v>
       </c>
       <c r="B260" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C260" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D260" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E260">
         <v>1200</v>
@@ -6677,13 +6677,13 @@
         <v>6</v>
       </c>
       <c r="B261" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C261" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D261" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E261">
         <v>1200</v>
@@ -6700,13 +6700,13 @@
         <v>6</v>
       </c>
       <c r="B262" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C262" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D262" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E262">
         <v>1200</v>
@@ -6723,13 +6723,13 @@
         <v>6</v>
       </c>
       <c r="B263" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C263" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D263" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E263">
         <v>1200</v>
@@ -6746,13 +6746,13 @@
         <v>6</v>
       </c>
       <c r="B264" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C264" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D264" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E264">
         <v>1200</v>
@@ -6769,13 +6769,13 @@
         <v>6</v>
       </c>
       <c r="B265" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C265" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D265" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E265">
         <v>1200</v>
@@ -6792,13 +6792,13 @@
         <v>6</v>
       </c>
       <c r="B266" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C266" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D266" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E266">
         <v>1200</v>
@@ -6815,13 +6815,13 @@
         <v>6</v>
       </c>
       <c r="B267" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C267" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D267" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E267">
         <v>1200</v>
@@ -6838,13 +6838,13 @@
         <v>6</v>
       </c>
       <c r="B268" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C268" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D268" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E268">
         <v>1200</v>
@@ -6861,13 +6861,13 @@
         <v>6</v>
       </c>
       <c r="B269" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C269" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D269" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E269">
         <v>1200</v>
@@ -6884,13 +6884,13 @@
         <v>6</v>
       </c>
       <c r="B270" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C270" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D270" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E270">
         <v>1200</v>
@@ -6907,13 +6907,13 @@
         <v>6</v>
       </c>
       <c r="B271" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C271" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D271" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E271">
         <v>1200</v>
@@ -6930,13 +6930,13 @@
         <v>6</v>
       </c>
       <c r="B272" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C272" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D272" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E272">
         <v>1200</v>
@@ -6953,13 +6953,13 @@
         <v>6</v>
       </c>
       <c r="B273" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C273" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D273" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E273">
         <v>1200</v>
@@ -6976,13 +6976,13 @@
         <v>6</v>
       </c>
       <c r="B274" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C274" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D274" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E274">
         <v>1200</v>
@@ -6999,13 +6999,13 @@
         <v>6</v>
       </c>
       <c r="B275" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C275" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D275" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E275">
         <v>1200</v>
@@ -7022,13 +7022,13 @@
         <v>6</v>
       </c>
       <c r="B276" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C276" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D276" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E276">
         <v>1200</v>
@@ -7045,13 +7045,13 @@
         <v>6</v>
       </c>
       <c r="B277" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C277" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D277" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E277">
         <v>1200</v>
@@ -7068,13 +7068,13 @@
         <v>6</v>
       </c>
       <c r="B278" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C278" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D278" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E278">
         <v>1200</v>
@@ -7091,13 +7091,13 @@
         <v>6</v>
       </c>
       <c r="B279" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C279" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D279" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E279">
         <v>1200</v>
@@ -7114,13 +7114,13 @@
         <v>6</v>
       </c>
       <c r="B280" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C280" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D280" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E280">
         <v>1200</v>
@@ -7137,13 +7137,13 @@
         <v>6</v>
       </c>
       <c r="B281" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C281" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D281" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E281">
         <v>1200</v>
@@ -7160,13 +7160,13 @@
         <v>6</v>
       </c>
       <c r="B282" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C282" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D282" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E282">
         <v>1200</v>
@@ -7183,13 +7183,13 @@
         <v>6</v>
       </c>
       <c r="B283" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C283" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D283" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E283">
         <v>1200</v>
@@ -7206,13 +7206,13 @@
         <v>6</v>
       </c>
       <c r="B284" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C284" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D284" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E284">
         <v>1200</v>
@@ -7229,13 +7229,13 @@
         <v>6</v>
       </c>
       <c r="B285" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C285" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D285" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E285">
         <v>1200</v>
@@ -7252,13 +7252,13 @@
         <v>6</v>
       </c>
       <c r="B286" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C286" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D286" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E286">
         <v>1200</v>
@@ -7275,13 +7275,13 @@
         <v>6</v>
       </c>
       <c r="B287" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C287" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D287" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E287">
         <v>1200</v>
@@ -7298,13 +7298,13 @@
         <v>6</v>
       </c>
       <c r="B288" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C288" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D288" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E288">
         <v>1200</v>
@@ -7321,13 +7321,13 @@
         <v>6</v>
       </c>
       <c r="B289" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C289" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D289" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E289">
         <v>1200</v>
@@ -7344,13 +7344,13 @@
         <v>6</v>
       </c>
       <c r="B290" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C290" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D290" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E290">
         <v>1200</v>
@@ -7367,13 +7367,13 @@
         <v>6</v>
       </c>
       <c r="B291" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C291" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D291" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E291">
         <v>1200</v>
@@ -7390,13 +7390,13 @@
         <v>6</v>
       </c>
       <c r="B292" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C292" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D292" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E292">
         <v>1200</v>
@@ -7413,13 +7413,13 @@
         <v>6</v>
       </c>
       <c r="B293" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C293" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D293" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E293">
         <v>1200</v>
@@ -7436,13 +7436,13 @@
         <v>6</v>
       </c>
       <c r="B294" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C294" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D294" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E294">
         <v>1200</v>
@@ -7459,13 +7459,13 @@
         <v>6</v>
       </c>
       <c r="B295" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C295" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D295" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E295">
         <v>1200</v>
@@ -7482,13 +7482,13 @@
         <v>6</v>
       </c>
       <c r="B296" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C296" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D296" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E296">
         <v>1200</v>
@@ -7505,13 +7505,13 @@
         <v>6</v>
       </c>
       <c r="B297" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C297" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D297" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E297">
         <v>1200</v>
@@ -7528,13 +7528,13 @@
         <v>6</v>
       </c>
       <c r="B298" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C298" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D298" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E298">
         <v>1200</v>
@@ -7551,13 +7551,13 @@
         <v>6</v>
       </c>
       <c r="B299" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C299" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D299" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E299">
         <v>1200</v>
@@ -7574,13 +7574,13 @@
         <v>6</v>
       </c>
       <c r="B300" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C300" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D300" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E300">
         <v>1200</v>
@@ -7597,13 +7597,13 @@
         <v>6</v>
       </c>
       <c r="B301" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C301" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D301" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E301">
         <v>1200</v>
@@ -7620,13 +7620,13 @@
         <v>6</v>
       </c>
       <c r="B302" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C302" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D302" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E302">
         <v>1200</v>
@@ -7643,13 +7643,13 @@
         <v>6</v>
       </c>
       <c r="B303" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C303" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D303" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E303">
         <v>1200</v>
@@ -7666,13 +7666,13 @@
         <v>6</v>
       </c>
       <c r="B304" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C304" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D304" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E304">
         <v>1200</v>
@@ -7689,13 +7689,13 @@
         <v>6</v>
       </c>
       <c r="B305" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C305" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D305" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E305">
         <v>1200</v>
@@ -7712,13 +7712,13 @@
         <v>6</v>
       </c>
       <c r="B306" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C306" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D306" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E306">
         <v>1200</v>
@@ -7735,13 +7735,13 @@
         <v>6</v>
       </c>
       <c r="B307" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C307" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D307" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E307">
         <v>1200</v>
@@ -7758,13 +7758,13 @@
         <v>6</v>
       </c>
       <c r="B308" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C308" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D308" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E308">
         <v>1200</v>
@@ -7781,13 +7781,13 @@
         <v>6</v>
       </c>
       <c r="B309" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C309" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D309" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E309">
         <v>1200</v>
@@ -7804,13 +7804,13 @@
         <v>6</v>
       </c>
       <c r="B310" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C310" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D310" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E310">
         <v>1200</v>
@@ -7827,13 +7827,13 @@
         <v>6</v>
       </c>
       <c r="B311" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C311" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D311" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E311">
         <v>1200</v>
@@ -7850,13 +7850,13 @@
         <v>6</v>
       </c>
       <c r="B312" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C312" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D312" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E312">
         <v>1200</v>
@@ -7873,13 +7873,13 @@
         <v>6</v>
       </c>
       <c r="B313" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C313" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D313" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E313">
         <v>1200</v>
@@ -7896,13 +7896,13 @@
         <v>6</v>
       </c>
       <c r="B314" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C314" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D314" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E314">
         <v>1200</v>
@@ -7919,13 +7919,13 @@
         <v>6</v>
       </c>
       <c r="B315" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C315" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D315" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E315">
         <v>1200</v>
@@ -7942,13 +7942,13 @@
         <v>6</v>
       </c>
       <c r="B316" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C316" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D316" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E316">
         <v>1200</v>
@@ -7965,13 +7965,13 @@
         <v>6</v>
       </c>
       <c r="B317" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C317" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D317" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E317">
         <v>1200</v>
@@ -7988,13 +7988,13 @@
         <v>6</v>
       </c>
       <c r="B318" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C318" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D318" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E318">
         <v>1200</v>
@@ -8011,13 +8011,13 @@
         <v>6</v>
       </c>
       <c r="B319" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C319" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D319" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E319">
         <v>1200</v>
@@ -8034,13 +8034,13 @@
         <v>6</v>
       </c>
       <c r="B320" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C320" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D320" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E320">
         <v>1200</v>
@@ -8057,13 +8057,13 @@
         <v>6</v>
       </c>
       <c r="B321" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C321" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D321" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E321">
         <v>1200</v>
@@ -8080,13 +8080,13 @@
         <v>6</v>
       </c>
       <c r="B322" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C322" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D322" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E322">
         <v>1200</v>
@@ -8103,13 +8103,13 @@
         <v>6</v>
       </c>
       <c r="B323" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C323" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D323" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E323">
         <v>1200</v>
@@ -8126,13 +8126,13 @@
         <v>6</v>
       </c>
       <c r="B324" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C324" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D324" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E324">
         <v>1200</v>
@@ -8149,13 +8149,13 @@
         <v>6</v>
       </c>
       <c r="B325" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C325" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D325" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E325">
         <v>1200</v>
@@ -8172,13 +8172,13 @@
         <v>6</v>
       </c>
       <c r="B326" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C326" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D326" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E326">
         <v>1200</v>
@@ -8195,13 +8195,13 @@
         <v>6</v>
       </c>
       <c r="B327" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C327" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D327" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E327">
         <v>1200</v>
@@ -8218,13 +8218,13 @@
         <v>6</v>
       </c>
       <c r="B328" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C328" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D328" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E328">
         <v>1200</v>
@@ -8241,13 +8241,13 @@
         <v>6</v>
       </c>
       <c r="B329" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C329" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D329" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E329">
         <v>1200</v>
@@ -8264,13 +8264,13 @@
         <v>6</v>
       </c>
       <c r="B330" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C330" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D330" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E330">
         <v>1200</v>
@@ -8287,13 +8287,13 @@
         <v>6</v>
       </c>
       <c r="B331" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C331" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D331" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E331">
         <v>1200</v>
@@ -8310,13 +8310,13 @@
         <v>6</v>
       </c>
       <c r="B332" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C332" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D332" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E332">
         <v>1200</v>
@@ -8333,13 +8333,13 @@
         <v>6</v>
       </c>
       <c r="B333" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C333" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D333" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E333">
         <v>1200</v>
@@ -8356,13 +8356,13 @@
         <v>6</v>
       </c>
       <c r="B334" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C334" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D334" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E334">
         <v>1200</v>
@@ -8379,13 +8379,13 @@
         <v>6</v>
       </c>
       <c r="B335" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C335" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D335" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E335">
         <v>1200</v>
@@ -8402,13 +8402,13 @@
         <v>6</v>
       </c>
       <c r="B336" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C336" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D336" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E336">
         <v>1200</v>
@@ -8425,13 +8425,13 @@
         <v>6</v>
       </c>
       <c r="B337" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C337" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D337" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E337">
         <v>1200</v>
@@ -8448,13 +8448,13 @@
         <v>6</v>
       </c>
       <c r="B338" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C338" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D338" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E338">
         <v>1200</v>
@@ -8471,13 +8471,13 @@
         <v>6</v>
       </c>
       <c r="B339" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C339" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D339" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E339">
         <v>1200</v>
@@ -8494,13 +8494,13 @@
         <v>6</v>
       </c>
       <c r="B340" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C340" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D340" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E340">
         <v>1200</v>
@@ -8517,13 +8517,13 @@
         <v>6</v>
       </c>
       <c r="B341" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C341" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D341" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E341">
         <v>1200</v>
@@ -8540,13 +8540,13 @@
         <v>6</v>
       </c>
       <c r="B342" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C342" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D342" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E342">
         <v>1200</v>
@@ -8563,13 +8563,13 @@
         <v>6</v>
       </c>
       <c r="B343" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C343" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D343" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E343">
         <v>1200</v>
@@ -8586,13 +8586,13 @@
         <v>6</v>
       </c>
       <c r="B344" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C344" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D344" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E344">
         <v>1200</v>
@@ -8609,13 +8609,13 @@
         <v>6</v>
       </c>
       <c r="B345" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C345" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D345" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E345">
         <v>1200</v>
@@ -8632,13 +8632,13 @@
         <v>6</v>
       </c>
       <c r="B346" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C346" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D346" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E346">
         <v>1200</v>
@@ -8655,13 +8655,13 @@
         <v>6</v>
       </c>
       <c r="B347" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C347" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D347" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E347">
         <v>1200</v>
@@ -8678,13 +8678,13 @@
         <v>6</v>
       </c>
       <c r="B348" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C348" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D348" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E348">
         <v>1200</v>
@@ -8701,13 +8701,13 @@
         <v>6</v>
       </c>
       <c r="B349" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C349" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D349" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E349">
         <v>1200</v>
@@ -8724,13 +8724,13 @@
         <v>6</v>
       </c>
       <c r="B350" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C350" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D350" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E350">
         <v>1200</v>
@@ -8747,13 +8747,13 @@
         <v>6</v>
       </c>
       <c r="B351" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C351" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D351" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E351">
         <v>1200</v>
@@ -8770,13 +8770,13 @@
         <v>6</v>
       </c>
       <c r="B352" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C352" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D352" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E352">
         <v>1200</v>
@@ -8793,13 +8793,13 @@
         <v>6</v>
       </c>
       <c r="B353" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C353" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D353" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E353">
         <v>1200</v>
@@ -8816,13 +8816,13 @@
         <v>6</v>
       </c>
       <c r="B354" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C354" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D354" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E354">
         <v>1200</v>
@@ -8839,13 +8839,13 @@
         <v>6</v>
       </c>
       <c r="B355" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C355" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D355" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E355">
         <v>1200</v>
@@ -8862,13 +8862,13 @@
         <v>6</v>
       </c>
       <c r="B356" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C356" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D356" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E356">
         <v>1200</v>
@@ -8885,13 +8885,13 @@
         <v>6</v>
       </c>
       <c r="B357" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C357" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D357" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E357">
         <v>1200</v>
@@ -8908,13 +8908,13 @@
         <v>6</v>
       </c>
       <c r="B358" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C358" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D358" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E358">
         <v>1200</v>
@@ -8931,13 +8931,13 @@
         <v>6</v>
       </c>
       <c r="B359" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C359" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D359" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E359">
         <v>1200</v>
@@ -8954,13 +8954,13 @@
         <v>6</v>
       </c>
       <c r="B360" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C360" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D360" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E360">
         <v>1200</v>
@@ -8977,13 +8977,13 @@
         <v>6</v>
       </c>
       <c r="B361" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C361" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D361" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E361">
         <v>1200</v>
@@ -9000,13 +9000,13 @@
         <v>6</v>
       </c>
       <c r="B362" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C362" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D362" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E362">
         <v>1200</v>
@@ -9020,16 +9020,16 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B363" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C363" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D363" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E363">
         <v>1200</v>
@@ -9043,16 +9043,16 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B364" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C364" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D364" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E364">
         <v>1200</v>
@@ -9066,16 +9066,16 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B365" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C365" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D365" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E365">
         <v>1200</v>
@@ -9089,16 +9089,16 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
+        <v>30</v>
+      </c>
+      <c r="B366" t="s">
+        <v>68</v>
+      </c>
+      <c r="C366" t="s">
+        <v>33</v>
+      </c>
+      <c r="D366" t="s">
         <v>37</v>
-      </c>
-      <c r="B366" t="s">
-        <v>75</v>
-      </c>
-      <c r="C366" t="s">
-        <v>40</v>
-      </c>
-      <c r="D366" t="s">
-        <v>44</v>
       </c>
       <c r="E366">
         <v>1200</v>
@@ -9112,16 +9112,16 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B367" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C367" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D367" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E367">
         <v>1200</v>
@@ -9135,16 +9135,16 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B368" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C368" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D368" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E368">
         <v>1200</v>
@@ -9158,16 +9158,16 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B369" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C369" t="s">
+        <v>33</v>
+      </c>
+      <c r="D369" t="s">
         <v>40</v>
-      </c>
-      <c r="D369" t="s">
-        <v>47</v>
       </c>
       <c r="E369">
         <v>1200</v>
@@ -9181,16 +9181,16 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B370" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C370" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D370" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E370">
         <v>1200</v>
@@ -9204,16 +9204,16 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B371" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C371" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D371" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E371">
         <v>1200</v>
@@ -9227,16 +9227,16 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B372" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C372" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D372" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E372">
         <v>1200</v>
@@ -9250,16 +9250,16 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B373" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C373" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D373" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E373">
         <v>1200</v>
@@ -9273,16 +9273,16 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B374" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C374" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D374" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E374">
         <v>1200</v>
@@ -9296,16 +9296,16 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B375" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C375" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D375" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E375">
         <v>1200</v>
@@ -9319,16 +9319,16 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B376" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C376" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D376" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E376">
         <v>1200</v>
@@ -9342,16 +9342,16 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B377" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C377" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D377" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E377">
         <v>1200</v>
@@ -9365,16 +9365,16 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B378" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C378" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D378" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E378">
         <v>1200</v>
@@ -9388,16 +9388,16 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B379" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C379" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D379" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E379">
         <v>1200</v>
@@ -9411,16 +9411,16 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B380" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C380" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D380" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E380">
         <v>1200</v>
@@ -9434,16 +9434,16 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B381" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C381" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D381" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E381">
         <v>1200</v>
@@ -9457,16 +9457,16 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B382" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C382" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D382" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E382">
         <v>1200</v>
@@ -9480,16 +9480,16 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B383" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C383" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D383" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E383">
         <v>1200</v>
@@ -9503,16 +9503,16 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B384" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C384" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D384" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E384">
         <v>1200</v>
@@ -9526,16 +9526,16 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B385" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C385" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D385" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E385">
         <v>1200</v>
@@ -9549,16 +9549,16 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B386" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C386" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D386" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E386">
         <v>1200</v>
@@ -9572,16 +9572,16 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B387" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C387" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D387" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E387">
         <v>1200</v>
@@ -9595,16 +9595,16 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B388" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C388" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D388" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E388">
         <v>1200</v>
@@ -9618,16 +9618,16 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B389" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C389" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D389" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E389">
         <v>1200</v>
@@ -9641,16 +9641,16 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B390" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C390" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D390" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E390">
         <v>1200</v>
@@ -9664,16 +9664,16 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B391" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C391" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D391" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E391">
         <v>1200</v>
@@ -9687,16 +9687,16 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B392" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C392" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D392" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E392">
         <v>1200</v>
@@ -9710,16 +9710,16 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B393" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C393" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D393" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E393">
         <v>1200</v>
@@ -9733,16 +9733,16 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B394" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C394" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D394" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E394">
         <v>1200</v>
@@ -9756,16 +9756,16 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B395" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C395" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D395" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E395">
         <v>1200</v>
@@ -9779,16 +9779,16 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B396" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C396" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D396" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E396">
         <v>1200</v>
@@ -9802,16 +9802,16 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B397" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C397" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D397" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E397">
         <v>1200</v>
@@ -9825,16 +9825,16 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B398" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C398" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D398" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E398">
         <v>1200</v>
@@ -9848,16 +9848,16 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B399" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C399" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D399" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E399">
         <v>1200</v>
@@ -9871,16 +9871,16 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B400" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C400" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D400" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E400">
         <v>1200</v>
@@ -9894,16 +9894,16 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B401" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C401" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D401" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E401">
         <v>1200</v>
@@ -9917,16 +9917,16 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B402" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C402" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D402" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E402">
         <v>1200</v>
@@ -9940,16 +9940,16 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B403" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C403" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D403" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E403">
         <v>1200</v>
@@ -9963,16 +9963,16 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B404" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C404" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D404" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E404">
         <v>1200</v>
@@ -9986,16 +9986,16 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B405" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C405" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D405" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E405">
         <v>1200</v>
@@ -10009,16 +10009,16 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B406" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C406" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D406" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E406">
         <v>1200</v>
@@ -10032,16 +10032,16 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B407" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C407" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D407" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E407">
         <v>1200</v>
@@ -10055,16 +10055,16 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B408" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C408" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D408" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E408">
         <v>1200</v>
@@ -10078,16 +10078,16 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B409" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C409" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D409" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E409">
         <v>1200</v>
@@ -10101,16 +10101,16 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B410" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C410" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D410" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E410">
         <v>1200</v>
@@ -10124,16 +10124,16 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B411" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C411" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D411" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E411">
         <v>1200</v>
@@ -10147,16 +10147,16 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B412" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C412" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D412" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E412">
         <v>1200</v>
@@ -10170,16 +10170,16 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B413" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C413" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D413" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E413">
         <v>1200</v>
@@ -10193,16 +10193,16 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B414" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C414" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D414" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E414">
         <v>1200</v>
@@ -10216,16 +10216,16 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B415" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C415" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D415" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E415">
         <v>1200</v>
@@ -10239,16 +10239,16 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B416" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C416" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D416" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E416">
         <v>1200</v>
@@ -10262,16 +10262,16 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B417" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C417" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D417" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E417">
         <v>1200</v>
@@ -10285,16 +10285,16 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B418" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C418" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D418" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E418">
         <v>1200</v>
@@ -10308,16 +10308,16 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B419" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C419" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D419" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E419">
         <v>1200</v>
@@ -10331,16 +10331,16 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B420" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C420" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D420" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E420">
         <v>1200</v>
@@ -10354,16 +10354,16 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B421" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C421" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D421" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E421">
         <v>1200</v>
@@ -10377,16 +10377,16 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B422" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C422" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D422" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E422">
         <v>1200</v>
@@ -10400,16 +10400,16 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B423" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C423" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D423" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E423">
         <v>1200</v>
@@ -10423,16 +10423,16 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B424" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C424" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D424" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E424">
         <v>1200</v>
@@ -10446,16 +10446,16 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B425" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C425" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D425" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E425">
         <v>1200</v>
@@ -10469,16 +10469,16 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B426" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C426" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D426" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E426">
         <v>1200</v>
@@ -10492,16 +10492,16 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B427" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C427" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D427" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E427">
         <v>1200</v>
@@ -10515,16 +10515,16 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B428" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C428" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D428" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E428">
         <v>1200</v>
@@ -10538,16 +10538,16 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B429" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C429" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D429" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E429">
         <v>1200</v>
@@ -10561,16 +10561,16 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B430" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C430" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D430" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E430">
         <v>1200</v>
@@ -10584,16 +10584,16 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B431" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C431" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D431" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E431">
         <v>1200</v>
@@ -10607,16 +10607,16 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B432" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C432" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D432" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E432">
         <v>1200</v>
@@ -10630,16 +10630,16 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B433" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C433" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D433" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E433">
         <v>1200</v>
@@ -10653,16 +10653,16 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B434" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C434" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D434" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E434">
         <v>1200</v>
@@ -10676,16 +10676,16 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B435" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C435" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D435" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E435">
         <v>1200</v>
@@ -10699,16 +10699,16 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B436" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C436" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D436" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E436">
         <v>1200</v>
@@ -10722,16 +10722,16 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B437" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C437" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D437" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E437">
         <v>1200</v>
@@ -10745,16 +10745,16 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B438" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C438" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D438" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E438">
         <v>1200</v>
@@ -10768,16 +10768,16 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B439" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C439" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D439" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E439">
         <v>1200</v>
@@ -10791,16 +10791,16 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B440" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C440" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D440" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E440">
         <v>1200</v>
@@ -10814,16 +10814,16 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B441" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C441" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D441" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E441">
         <v>1200</v>
@@ -10837,16 +10837,16 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B442" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C442" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D442" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E442">
         <v>1200</v>
@@ -10860,16 +10860,16 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B443" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C443" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D443" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E443">
         <v>1200</v>
@@ -10883,16 +10883,16 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B444" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C444" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D444" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E444">
         <v>1200</v>
@@ -10906,16 +10906,16 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B445" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C445" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D445" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E445">
         <v>1200</v>
@@ -10929,16 +10929,16 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B446" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C446" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D446" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E446">
         <v>1200</v>
@@ -10952,16 +10952,16 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B447" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C447" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D447" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E447">
         <v>1200</v>
@@ -10975,16 +10975,16 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B448" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C448" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D448" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E448">
         <v>1200</v>
@@ -10998,16 +10998,16 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B449" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C449" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D449" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E449">
         <v>1200</v>
@@ -11021,16 +11021,16 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B450" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C450" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D450" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E450">
         <v>1200</v>
@@ -11044,16 +11044,16 @@
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B451" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C451" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D451" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E451">
         <v>1200</v>
@@ -11067,16 +11067,16 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B452" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C452" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D452" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E452">
         <v>1200</v>
@@ -11090,16 +11090,16 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B453" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C453" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D453" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E453">
         <v>1200</v>
@@ -11113,16 +11113,16 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B454" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C454" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D454" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E454">
         <v>1200</v>
@@ -11136,16 +11136,16 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B455" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C455" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D455" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E455">
         <v>1200</v>
@@ -11159,16 +11159,16 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B456" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C456" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D456" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E456">
         <v>1200</v>
@@ -11182,16 +11182,16 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B457" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C457" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D457" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E457">
         <v>1200</v>
@@ -11205,16 +11205,16 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B458" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C458" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D458" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E458">
         <v>1200</v>
@@ -11228,16 +11228,16 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B459" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C459" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D459" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E459">
         <v>1200</v>
@@ -11251,16 +11251,16 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B460" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C460" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D460" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E460">
         <v>1200</v>
@@ -11274,16 +11274,16 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B461" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C461" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D461" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E461">
         <v>1200</v>
@@ -11297,16 +11297,16 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B462" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C462" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D462" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E462">
         <v>1200</v>
@@ -11320,16 +11320,16 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B463" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C463" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D463" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E463">
         <v>1200</v>
@@ -11343,16 +11343,16 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B464" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C464" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D464" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E464">
         <v>1200</v>
@@ -11366,16 +11366,16 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B465" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C465" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D465" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E465">
         <v>1200</v>
@@ -11389,16 +11389,16 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B466" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C466" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D466" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E466">
         <v>1200</v>
@@ -11412,16 +11412,16 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B467" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C467" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D467" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E467">
         <v>1200</v>
@@ -11435,16 +11435,16 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B468" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C468" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D468" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E468">
         <v>1200</v>
